--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C653C486-DB2A-4A77-A438-3A99FDBAB704}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Taak</t>
   </si>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,12 +460,10 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,13 +657,13 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,8 +2097,8 @@
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>73</v>
+      <c r="D12" s="2">
+        <v>2</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2157,7 +2155,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -2171,7 +2169,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2183,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2199,7 +2197,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -2213,7 +2211,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2235,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2249,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -2265,7 +2263,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2279,7 +2277,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2291,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2307,7 +2305,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2317,7 +2315,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -2331,7 +2329,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2344,13 +2342,8 @@
         <v>73</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
@@ -2363,13 +2356,10 @@
         <v>73</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I31" s="20"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
@@ -2382,13 +2372,10 @@
         <v>73</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I32" s="20"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
@@ -2401,13 +2388,10 @@
         <v>73</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I33" s="20"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>63</v>
       </c>
@@ -2416,13 +2400,10 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I34" s="20"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
@@ -2435,13 +2416,10 @@
         <v>73</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="21"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="20"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -2454,13 +2432,8 @@
         <v>73</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -2473,13 +2446,8 @@
         <v>73</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2457,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2517,7 +2485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>69</v>
       </c>
@@ -2531,7 +2499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
@@ -2545,7 +2513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -2555,7 +2523,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
@@ -2563,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>73</v>
+      <c r="D44" s="2">
+        <v>1</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2547,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
@@ -2593,7 +2561,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
@@ -2607,7 +2575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2867,15 +2835,15 @@
       </c>
       <c r="D67" s="16">
         <f>C$67-SUM(D3:D62)</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2912,6 +2880,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3160,16 +3137,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3186,12 +3162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C653C486-DB2A-4A77-A438-3A99FDBAB704}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272A23EB-8AEF-4A4E-BCD8-0BDF235696F0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Taak</t>
   </si>
@@ -657,13 +657,13 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,6 +1597,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1917,7 +1921,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,8 +2087,8 @@
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
+      <c r="D11" s="2">
+        <v>4</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2139,8 +2143,8 @@
         <v>3</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
+      <c r="D15" s="2">
+        <v>3</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2835,15 +2839,15 @@
       </c>
       <c r="D67" s="16">
         <f>C$67-SUM(D3:D62)</f>
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,15 +2884,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3137,15 +3132,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3162,4 +3158,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272A23EB-8AEF-4A4E-BCD8-0BDF235696F0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E583E3D-DA1F-4DF5-AB08-901A7FE4DA82}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Taak</t>
   </si>
@@ -660,10 +660,10 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,10 +1597,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1920,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,8 +2164,8 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>73</v>
+      <c r="E17" s="2">
+        <v>2</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -2290,8 +2286,8 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
+      <c r="E26" s="2">
+        <v>2</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2740,8 +2736,8 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
+      <c r="E60" s="2">
+        <v>2</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -2843,11 +2839,11 @@
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E583E3D-DA1F-4DF5-AB08-901A7FE4DA82}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7D013E-6AC0-428C-8FF6-645D674ADB00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>Taak</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Backend Party Information page</t>
+  </si>
+  <si>
+    <t>supercalifragilisticexpialidocious</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,6 +1600,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1914,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,9 +1932,10 @@
     <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1945,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1979,7 +1987,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +2001,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2015,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2045,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2055,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2069,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2075,7 +2083,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2097,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2103,7 +2111,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2125,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -2131,7 +2139,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2144,8 +2152,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -2192,8 +2203,8 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
+      <c r="E19" s="2">
+        <v>3</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -2220,8 +2231,8 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
+      <c r="E21" s="2">
+        <v>1</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2839,11 +2850,11 @@
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,6 +2891,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3128,16 +3148,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3154,12 +3173,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7D013E-6AC0-428C-8FF6-645D674ADB00}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3CC83F-C3C8-4DA9-9C75-A747CA94DFB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Taak</t>
   </si>
@@ -294,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,6 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +670,10 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2053,7 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="12"/>
@@ -2157,7 +2164,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
@@ -2189,8 +2196,8 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
+      <c r="E18" s="2">
+        <v>4</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -2217,8 +2224,8 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
+      <c r="E20" s="2">
+        <v>4</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -2255,8 +2262,8 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -2269,8 +2276,8 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
+      <c r="E24" s="2">
+        <v>4</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -2395,8 +2402,8 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
+      <c r="E33" s="2">
+        <v>2</v>
       </c>
       <c r="F33" s="2"/>
       <c r="I33" s="20"/>
@@ -2423,8 +2430,8 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
+      <c r="E35" s="2">
+        <v>2</v>
       </c>
       <c r="F35" s="2"/>
       <c r="I35" s="20"/>
@@ -2567,8 +2574,8 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>73</v>
+      <c r="E46" s="2">
+        <v>2</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2671,8 +2678,8 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
+      <c r="E54" s="2">
+        <v>2</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2850,11 +2857,11 @@
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dbff66645a1af34/Documenten/Periode9-ExamenOefening/Project Management/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackv\Documents\2 School Programming\Periode9-ExamenOefening\Project Management\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A692E1F0-5FB1-4ADC-A3B3-E6CBC109E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3CC83F-C3C8-4DA9-9C75-A747CA94DFB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3435B2C-9895-4F8A-B7BB-0DF8B1532924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Taak</t>
   </si>
@@ -496,7 +496,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -670,10 +670,10 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,10 +1607,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1930,19 +1926,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1960,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +1990,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2004,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +2018,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2052,7 +2048,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2058,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2072,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2090,7 +2086,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2104,7 +2100,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2118,7 +2114,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +2128,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -2146,7 +2142,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2163,7 +2159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2169,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2183,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -2201,7 +2197,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2215,7 +2211,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2225,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2239,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2249,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2263,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -2281,7 +2277,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2290,12 +2286,12 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
+      <c r="E25" s="2">
+        <v>4</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
@@ -2309,7 +2305,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2318,12 +2314,12 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>73</v>
+      <c r="E27" s="2">
+        <v>3</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2329,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -2342,12 +2338,12 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
+      <c r="E29" s="2">
+        <v>1</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2356,12 +2352,12 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
+      <c r="E30" s="2">
+        <v>1</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
@@ -2370,14 +2366,14 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
+      <c r="E31" s="2">
+        <v>3</v>
       </c>
       <c r="F31" s="2"/>
       <c r="I31" s="20"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
@@ -2386,14 +2382,14 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
+      <c r="E32" s="2">
+        <v>3</v>
       </c>
       <c r="F32" s="2"/>
       <c r="I32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2405,7 @@
       <c r="I33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>63</v>
       </c>
@@ -2421,7 +2417,7 @@
       <c r="I34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
@@ -2437,7 +2433,7 @@
       <c r="I35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -2451,7 +2447,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -2465,7 +2461,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +2471,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -2489,7 +2485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2503,7 +2499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>69</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
@@ -2531,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -2541,7 +2537,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
@@ -2555,7 +2551,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>19</v>
       </c>
@@ -2565,7 +2561,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2575,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2613,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +2627,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -2645,7 +2641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>72</v>
       </c>
@@ -2669,7 +2665,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
@@ -2683,7 +2679,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>51</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>53</v>
       </c>
@@ -2711,7 +2707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>21</v>
       </c>
@@ -2721,7 +2717,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2731,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -2745,7 +2741,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>57</v>
       </c>
@@ -2759,7 +2755,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>56</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
@@ -2787,7 +2783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
@@ -2797,7 +2793,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>75</v>
       </c>
@@ -2811,7 +2807,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>76</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>77</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>4</v>
       </c>
@@ -2857,14 +2853,14 @@
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>2</v>
       </c>

--- a/Project Management/Scrum/Burndown chart.xlsx
+++ b/Project Management/Scrum/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackv\Documents\2 School Programming\Periode9-ExamenOefening\Project Management\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Documents\GitHub\Periode9-ExamenOefening\Project Management\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3435B2C-9895-4F8A-B7BB-0DF8B1532924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810CDEE-64C5-41BB-A280-0356BFE740AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="2565" yWindow="1665" windowWidth="21600" windowHeight="11295" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Taak</t>
   </si>
@@ -566,7 +566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -667,13 +667,13 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -910,7 +910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -962,7 +962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -999,7 +999,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1926,19 +1926,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -2239,8 +2239,8 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="12"/>
@@ -2249,7 +2249,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2319,8 +2319,8 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="12"/>
@@ -2329,7 +2329,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="I31" s="20"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="I32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="I33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="12"/>
@@ -2417,7 +2417,7 @@
       <c r="I34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="I35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>73</v>
+      <c r="E36" s="2">
+        <v>3</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -2456,13 +2456,13 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
+      <c r="E37" s="2">
+        <v>3</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="12"/>
@@ -2471,7 +2471,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>69</v>
       </c>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
@@ -2522,13 +2522,13 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="12"/>
@@ -2537,7 +2537,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
@@ -2551,8 +2551,8 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="12"/>
@@ -2561,7 +2561,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
@@ -2583,13 +2583,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2597,14 +2597,14 @@
         <v>3</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="12"/>
@@ -2613,7 +2613,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -2636,12 +2636,12 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
@@ -2650,12 +2650,12 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>72</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>51</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>53</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>54</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>57</v>
       </c>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>56</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>75</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>76</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>77</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>4</v>
       </c>
@@ -2849,18 +2849,18 @@
       </c>
       <c r="D67" s="16">
         <f>C$67-SUM(D3:D62)</f>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E67" s="16">
         <f>D$67-SUM(E3:E62)</f>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F67" s="16">
         <f>E$67-SUM(F3:F62)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>2</v>
       </c>
@@ -2894,15 +2894,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -3151,15 +3142,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3176,4 +3168,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>